--- a/datasets/Salmonella_enterica_1203NYJAP-1.xlsx
+++ b/datasets/Salmonella_enterica_1203NYJAP-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\data.biotech.cdc.gov\home\src\datasets\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\WGS-standards-and-analysis\devel\datasets.git\trunk\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,135 +50,69 @@
     <t xml:space="preserve">CFSAN000191 </t>
   </si>
   <si>
-    <t xml:space="preserve">JMMH00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000211 </t>
   </si>
   <si>
-    <t xml:space="preserve">JMMM00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000212 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRDM00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000228 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRCY00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000661 </t>
   </si>
   <si>
-    <t xml:space="preserve">JMMG00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000669 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRCQ00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000700 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRCO00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000752 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRCN00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000753 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRCM00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000951 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRCJ00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000952 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRCI00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000954 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRCG00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000958 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRCD00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000960 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRCB00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000961 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRCA00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000963 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRBZ00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000968 </t>
   </si>
   <si>
-    <t xml:space="preserve">JMMF00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000970 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRBT00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN001112 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRBL00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN001115 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRBK00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN001118 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRBJ00000000 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN001140 </t>
   </si>
   <si>
-    <t xml:space="preserve">JRBI00000000 </t>
-  </si>
-  <si>
     <t>SRR1258439</t>
   </si>
   <si>
@@ -251,39 +185,21 @@
     <t>SRR498422</t>
   </si>
   <si>
-    <t>SAMN00991050</t>
-  </si>
-  <si>
     <t>SRR498423</t>
   </si>
   <si>
-    <t>SAMN00991051</t>
-  </si>
-  <si>
     <t>SRR498425</t>
   </si>
   <si>
-    <t>SAMN00991053</t>
-  </si>
-  <si>
     <t>SRR498431</t>
   </si>
   <si>
-    <t>SAMN00991081</t>
-  </si>
-  <si>
     <t>SRR498433</t>
   </si>
   <si>
-    <t>SAMN00991087</t>
-  </si>
-  <si>
     <t>SRR498434</t>
   </si>
   <si>
-    <t>SAMN00991100</t>
-  </si>
-  <si>
     <t>SRR498442</t>
   </si>
   <si>
@@ -293,9 +209,6 @@
     <t>SRR498444</t>
   </si>
   <si>
-    <t>SAMN00996629</t>
-  </si>
-  <si>
     <t>SRR500493</t>
   </si>
   <si>
@@ -422,9 +335,6 @@
     <t>1203NYJAP-1</t>
   </si>
   <si>
-    <t>CP006053, CP006054</t>
-  </si>
-  <si>
     <t>SRArun_acc</t>
   </si>
   <si>
@@ -477,6 +387,96 @@
   </si>
   <si>
     <t>http://api.opentreeoflife.org/v2/study/ot_301/tree/tree1.tre</t>
+  </si>
+  <si>
+    <t>GCA_000698635.1</t>
+  </si>
+  <si>
+    <t>GCA_000748565.1</t>
+  </si>
+  <si>
+    <t>GCA_000748245.1</t>
+  </si>
+  <si>
+    <t>GCA_000698715.1</t>
+  </si>
+  <si>
+    <t>GCA_000698515.1</t>
+  </si>
+  <si>
+    <t>GCA_000749005.1</t>
+  </si>
+  <si>
+    <t>GCA_000749045.1</t>
+  </si>
+  <si>
+    <t>GCA_000749065.1</t>
+  </si>
+  <si>
+    <t>GCA_000749085.1</t>
+  </si>
+  <si>
+    <t>GCA_000748065.1</t>
+  </si>
+  <si>
+    <t>GCA_000748085.1</t>
+  </si>
+  <si>
+    <t>GCA_000748025.1</t>
+  </si>
+  <si>
+    <t>GCA_000748045.1</t>
+  </si>
+  <si>
+    <t>GCA_000439415.1</t>
+  </si>
+  <si>
+    <t>GCA_000749145.1</t>
+  </si>
+  <si>
+    <t>SAMN01942233</t>
+  </si>
+  <si>
+    <t>GCA_000748405.1</t>
+  </si>
+  <si>
+    <t>SAMN01942244</t>
+  </si>
+  <si>
+    <t>GCA_000749295.1</t>
+  </si>
+  <si>
+    <t>GCA_000748525.1</t>
+  </si>
+  <si>
+    <t>SAMN01942253</t>
+  </si>
+  <si>
+    <t>GCA_000748505.1</t>
+  </si>
+  <si>
+    <t>SAMN01942254</t>
+  </si>
+  <si>
+    <t>GCA_000698535.1</t>
+  </si>
+  <si>
+    <t>GCA_000749415.1</t>
+  </si>
+  <si>
+    <t>SAMN01942296</t>
+  </si>
+  <si>
+    <t>GCA_000748465.1</t>
+  </si>
+  <si>
+    <t>SAMN01942300</t>
+  </si>
+  <si>
+    <t>GCA_000749165.1</t>
+  </si>
+  <si>
+    <t>SAMN01942313</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -669,6 +669,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1039,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1050,31 +1054,31 @@
     <col min="1" max="2" width="15.625" style="12"/>
     <col min="3" max="3" width="18.5" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="13"/>
-    <col min="5" max="5" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="33.5" style="13" customWidth="1"/>
     <col min="7" max="7" width="18" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="15.625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B3" s="14">
         <v>25995194</v>
@@ -1082,84 +1086,84 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>126</v>
+      <c r="C9" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G9" s="13" t="b">
         <v>1</v>
@@ -1172,22 +1176,22 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>2</v>
+      <c r="C10" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G10" s="13" t="b">
         <v>0</v>
@@ -1200,22 +1204,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G11" s="13" t="b">
         <v>0</v>
@@ -1228,22 +1232,22 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>117</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G12" s="13" t="b">
         <v>0</v>
@@ -1256,22 +1260,22 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G13" s="13" t="b">
         <v>0</v>
@@ -1284,22 +1288,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G14" s="13" t="b">
         <v>0</v>
@@ -1312,22 +1316,22 @@
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G15" s="13" t="b">
         <v>0</v>
@@ -1340,22 +1344,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G16" s="13" t="b">
         <v>0</v>
@@ -1368,22 +1372,22 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G17" s="13" t="b">
         <v>0</v>
@@ -1396,22 +1400,22 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G18" s="13" t="b">
         <v>0</v>
@@ -1423,23 +1427,23 @@
       <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>69</v>
+      <c r="A19" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G19" s="13" t="b">
         <v>0</v>
@@ -1451,23 +1455,23 @@
       <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>71</v>
+      <c r="A20" s="28" t="s">
+        <v>144</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>143</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G20" s="13" t="b">
         <v>0</v>
@@ -1479,23 +1483,23 @@
       <c r="L20" s="18"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>73</v>
+      <c r="A21" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>131</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G21" s="13" t="b">
         <v>0</v>
@@ -1507,23 +1511,23 @@
       <c r="L21" s="18"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>75</v>
+      <c r="A22" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G22" s="13" t="b">
         <v>0</v>
@@ -1535,23 +1539,23 @@
       <c r="L22" s="18"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>77</v>
+      <c r="A23" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G23" s="13" t="b">
         <v>0</v>
@@ -1563,23 +1567,23 @@
       <c r="L23" s="18"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>79</v>
+      <c r="A24" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G24" s="13" t="b">
         <v>0</v>
@@ -1592,22 +1596,22 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G25" s="13" t="b">
         <v>0</v>
@@ -1619,23 +1623,23 @@
       <c r="L25" s="18"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>81</v>
+      <c r="A26" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G26" s="13" t="b">
         <v>0</v>
@@ -1647,23 +1651,23 @@
       <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>83</v>
+      <c r="A27" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G27" s="13" t="b">
         <v>0</v>
@@ -1676,22 +1680,22 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G28" s="13" t="b">
         <v>0</v>
@@ -1704,22 +1708,22 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G29" s="13" t="b">
         <v>0</v>
@@ -1732,22 +1736,22 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G30" s="13" t="b">
         <v>0</v>
@@ -1760,22 +1764,22 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G31" s="13" t="b">
         <v>0</v>
@@ -1786,27 +1790,59 @@
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
-      <c r="C37" s="24"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="24"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
-      <c r="C47" s="25"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="24"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="25"/>
-      <c r="E53" s="25"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="24"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="25"/>
+      <c r="E59" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1831,84 +1867,84 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B18" s="6">
         <v>39504</v>
@@ -1916,51 +1952,51 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1968,17 +2004,17 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -1988,7 +2024,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Salmonella_enterica_1203NYJAP-1.xlsx
+++ b/datasets/Salmonella_enterica_1203NYJAP-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\WGS-standards-and-analysis\devel\datasets.git\trunk\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\data.biotech.cdc.gov\home\src\datasets\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="214">
   <si>
     <t xml:space="preserve">CFSAN000189 </t>
   </si>
@@ -71,9 +71,6 @@
     <t xml:space="preserve">CFSAN000752 </t>
   </si>
   <si>
-    <t xml:space="preserve">CFSAN000753 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CFSAN000951 </t>
   </si>
   <si>
@@ -477,13 +474,223 @@
   </si>
   <si>
     <t>SAMN01942313</t>
+  </si>
+  <si>
+    <t>CFSAN000753</t>
+  </si>
+  <si>
+    <t>cfcbb79f4de7df223bd4d7cdf1048e95c826d9c4e9cd894546abc03cfcd14d71</t>
+  </si>
+  <si>
+    <t>ddf49fc28dd3c38dca79da596e17fdf70c78374c2a06b33f513fe922e8947912</t>
+  </si>
+  <si>
+    <t>85b5691c0b5ddfc15171d2020cf6d23f255a0ec390b7d5c0093283cb1e8c4d4e</t>
+  </si>
+  <si>
+    <t>0fa4ae5082eaa7386452fc466f6245d2b62090c08ff22dbbbfadff2851edb4de</t>
+  </si>
+  <si>
+    <t>dcfdf1bff59f19c98fda5e4dc7b0fe1540f61f0422e12747bb6540c5dafbaa2d</t>
+  </si>
+  <si>
+    <t>a713cd3d5d63838b1d0ad6da6022c28d606ed89d37e5bbff885756aab9232f93</t>
+  </si>
+  <si>
+    <t>dad08d06603fcc9c9f198ce0dd285145a226ec5d5eaed39c4b50c930bb558bf2</t>
+  </si>
+  <si>
+    <t>0b589587529572591da23ed6ba6640875df2bfbcb488a2470f3463d4bdb85aef</t>
+  </si>
+  <si>
+    <t>8a262325936ae5731857d49a6388143b4683785f91e9185a2f9a8e54de82b2e4</t>
+  </si>
+  <si>
+    <t>3c816c89475948e7d51aa613d73df14feef4b621745e102c0b98aff2a5db258e</t>
+  </si>
+  <si>
+    <t>4a0471c8e2b5a598f4706ec440c0556351b3b9bcd21ba267671bfbf73d301755</t>
+  </si>
+  <si>
+    <t>0a705769d5899f1507868320ae6cbb6a66db8b3aba2753ef3062f20250a2c4ca</t>
+  </si>
+  <si>
+    <t>8c607f09cc68f44a06df723af46fe80071c875f41eaa73d4169095b004755a4f</t>
+  </si>
+  <si>
+    <t>94a16c86a068e4ece9a50879459c87d867bf609d5892f9618def7335a11d7510</t>
+  </si>
+  <si>
+    <t>be5b5339162f4c19d4cae2f5183cb3458ede05b4a4c7ba72fc8d18e005e292d1</t>
+  </si>
+  <si>
+    <t>f7fbf2425a5cf834811d8118c3ec82daf6eca4f93edcf1e7fd21cc7d185c9994</t>
+  </si>
+  <si>
+    <t>9ba32399bee5c10e51c9e71baaed8a9a827dfa52cb5a82e02b42247465ced011</t>
+  </si>
+  <si>
+    <t>6b33b3f49f125dd8447f847e43f9d443cd947c2ea6706756fca2ccb8e5f1df6e</t>
+  </si>
+  <si>
+    <t>6bfee28fb2203947849ec7061fd69781dd1b83f4705301ddbc505768d339d4d7</t>
+  </si>
+  <si>
+    <t>f2ef621b7b6c4f935b84e4efb696e3f96580ac0e10b96d0e6f93207663be8632</t>
+  </si>
+  <si>
+    <t>5a5672831ed2fa424fb8dd44f4922da217b7884fde35905802c248c336cccf6e</t>
+  </si>
+  <si>
+    <t>e46ba05e316934334ca40e3c522971551bee833794f669570dce145514bd9a9c</t>
+  </si>
+  <si>
+    <t>8934f83b8d0a9f5c5d44dbb9252d8eccadd5f26796e42f45ea946fdd104159e1</t>
+  </si>
+  <si>
+    <t>23bd0338cd576e74e28d0ab0942142e97dbc575939ed57cd851d664643f98045</t>
+  </si>
+  <si>
+    <t>3c2855e8aa1fc190a3c655249cdc2d3f1c43e06b9619fa8b64a749a7f0dd90fe</t>
+  </si>
+  <si>
+    <t>36430f30fdf9d79aadaa1a7a2cbd5e9c279409f76fffe3b476079f633130a270</t>
+  </si>
+  <si>
+    <t>6e5d735c0ab15b845a954d3b7f1e55f60b579395c0888295049a6b4ab47380d0</t>
+  </si>
+  <si>
+    <t>a835403dca5da5d80eb50c6d0c0f9853d48a256b56ffeeb6bd014bdeb063db9e</t>
+  </si>
+  <si>
+    <t>f978695af9080013b42974a46e73d92cb7be18db17196855bf8c504bbfe27d92</t>
+  </si>
+  <si>
+    <t>a23f650992150f2ef75091bf2823895861c9dbc1dbba2a7ba706b6fdc9144a8c</t>
+  </si>
+  <si>
+    <t>94f17b499900246394fbfe213762b1530d38702ff0de2eb105371a4ee0fba2c0</t>
+  </si>
+  <si>
+    <t>0e6e7104f6d1e9366d86792ebdad12aacb5bb739c59f7a19d68c4e663f635e49</t>
+  </si>
+  <si>
+    <t>fcb4e0209e987b36bbe8536a930e7d2c1b29155d31380d7e10a872f4a4ba1d88</t>
+  </si>
+  <si>
+    <t>b72a070431a804a8d60ba729f0602bc5fd34e1013972754cb6c5fecc58bd2e4a</t>
+  </si>
+  <si>
+    <t>e9a0288a4c88909c0e47abacacb9ead487c27de32b885fa9e7e6a205ba971d5c</t>
+  </si>
+  <si>
+    <t>fba509b96e8c641d01274e4f4538f8da56f85361d448a222ba8006db2df03592</t>
+  </si>
+  <si>
+    <t>d1cd57702872538b6bbdc5fa3123565deb470f5ad52f1795ce73f32757c17d6b</t>
+  </si>
+  <si>
+    <t>e9eb118ce31d0c793b8c92e012672c0515b5585837907a82c4962b2fe50c0a37</t>
+  </si>
+  <si>
+    <t>424d7c976669c2bb5429607074842e21ff2eb5443ae2e89b17fa8a7e8cca9139</t>
+  </si>
+  <si>
+    <t>aff50c882f160ae2f99f8701e07dc685664a78a6c758356c294c131d76890184</t>
+  </si>
+  <si>
+    <t>d95552f4a541d6523c12ec9fab9afb4baa064a58d015864a42282e0f5f72206f</t>
+  </si>
+  <si>
+    <t>d923bc1742a1022002423be237679aadd462f5a4cbe74462fcd743922c22e6f4</t>
+  </si>
+  <si>
+    <t>25357d80b008c568668990394c799f096b9c6ca70d68cbf0ee168857c84a6c53</t>
+  </si>
+  <si>
+    <t>941642742b17b699abe68edf8739e9457f0eadb04f69f03f2821782e9e5afa50</t>
+  </si>
+  <si>
+    <t>2811c07ebbef0302f4fd9e4c8249f20a935008e9b471902c94cbcf6dbd9f3d62</t>
+  </si>
+  <si>
+    <t>8a552e63936dc7a20befa017e3e05d6458f447710c716c89601e2c3ec3285bd5</t>
+  </si>
+  <si>
+    <t>884b6cd41b1700d44e28204cd911cb9a16a37c57378fe17ecb872cf7b26c176c</t>
+  </si>
+  <si>
+    <t>af6f8ee32c727991e548abb391050c01e7c54a371744db0879eeda6fa4505824</t>
+  </si>
+  <si>
+    <t>b497bc9b85621018a0ee473a2731b6b2b8e9118bb66838580f54926b9339be6d</t>
+  </si>
+  <si>
+    <t>c155f15b8021cd87c661399f0d207891ea9b897d7dbe6c812377a6a5045b43db</t>
+  </si>
+  <si>
+    <t>bcca0abb2e9386f95d9336fcc1de31e8131a4649fb61c2dae3abfc5dbf06475b</t>
+  </si>
+  <si>
+    <t>770add9f9004fbbcc86c3a2515d72d04f6e6ba7d7187de9bc4da08f182b8d46c</t>
+  </si>
+  <si>
+    <t>13045394046f5903ce3d40f41983b4f5e0d2aba90848d6401b2188a1e702a8d5</t>
+  </si>
+  <si>
+    <t>f6cdfcbd3d45fb3469657fea9c198db107bd9551bfd44028944671c52a5a2c5b</t>
+  </si>
+  <si>
+    <t>ef12d519353f981305e5ff3e91d4eaab11c57a58b7b7f7b928eeb02954a5ebf2</t>
+  </si>
+  <si>
+    <t>8867fd9951a62d40d2a745886abbb8b751a54a478aa0604618e61c314eb76946</t>
+  </si>
+  <si>
+    <t>caf5af7204dfb91ab16aa0e7dbc85a679b41122fbb772b7ec4f6e7e666e4f500</t>
+  </si>
+  <si>
+    <t>7b40896b749c115c55bbd09212330ab050987a2c985995ffd12f420ba9c24b80</t>
+  </si>
+  <si>
+    <t>e0b8e9860b3693913752f2b35b85316eb099e18786df38023b149b36b422f67b</t>
+  </si>
+  <si>
+    <t>d2393fa0cc389856d5d492782e78bdbd15190444148b08e457816f70c4cbd30f</t>
+  </si>
+  <si>
+    <t>ab60528d2e56f8f02fdb46644594438f403ca826ed96e7f4bf28fbbcbc44293e</t>
+  </si>
+  <si>
+    <t>c1a4afc8745f793d677d39202c0273e26dc4ad842cf9018d7fe481ed6c24b0f0</t>
+  </si>
+  <si>
+    <t>9be77fa886776ce20f22d43936e8a088e1bc506d387cf185ad197054d5324d5a</t>
+  </si>
+  <si>
+    <t>42cc4e53b6d2e76d8beab97e853935fbbd7c02f79e686a33b6009a285cc61023</t>
+  </si>
+  <si>
+    <t>36adfb268af0994466438b3be02afb149a102772c1b1937e010d8578f1c22165</t>
+  </si>
+  <si>
+    <t>e9b950adae85d772f82785ecbdd86a1ecd51c8756ef3793a9251f39af1f144e8</t>
+  </si>
+  <si>
+    <t>b82d1343d00809746ff9ca297292cf2a4e439f59ba867800b84e6e63a9380825</t>
+  </si>
+  <si>
+    <t>6484dce8f4a9a5f2a058d00e386578d74080ed42e87197fab79f3e7fafdd5dbf</t>
+  </si>
+  <si>
+    <t>4cd5f67c72c4cf5713d43a195dafdf35bdd5764eb78de25a545b3cad5025502b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -534,6 +741,12 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -603,7 +816,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -666,13 +879,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1046,12 +1264,13 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.625" style="12"/>
+    <col min="1" max="1" width="15.625" style="12"/>
+    <col min="2" max="2" width="15.625" style="17"/>
     <col min="3" max="3" width="18.5" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="13"/>
     <col min="5" max="5" width="18.375" style="13" customWidth="1"/>
@@ -1062,731 +1281,869 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="11" t="s">
         <v>63</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="14">
+        <v>105</v>
+      </c>
+      <c r="B3" s="29">
         <v>25995194</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>114</v>
+        <v>97</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="16" t="s">
         <v>60</v>
       </c>
+      <c r="B8" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="C8" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>104</v>
-      </c>
       <c r="K8" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>128</v>
+      <c r="C9" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>96</v>
-      </c>
       <c r="F9" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="H9" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>146</v>
+      </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>115</v>
+      <c r="C10" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="H10" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>150</v>
+      </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>118</v>
+      <c r="C11" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="H11" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>156</v>
+      </c>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>117</v>
+      <c r="C12" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="H12" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>116</v>
+      <c r="C13" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="H13" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>162</v>
+      </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>119</v>
+      <c r="C14" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="H14" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>165</v>
+      </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="H15" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>168</v>
+      </c>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>121</v>
+      <c r="C16" s="26" t="s">
+        <v>120</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="H16" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>171</v>
+      </c>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>122</v>
+      <c r="C17" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="H17" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>174</v>
+      </c>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>123</v>
+        <v>44</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="H18" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="27" t="s">
+      <c r="A19" s="27" t="s">
         <v>129</v>
       </c>
+      <c r="B19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>128</v>
+      </c>
       <c r="D19" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="H19" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>180</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="27" t="s">
+      <c r="A20" s="27" t="s">
         <v>143</v>
       </c>
+      <c r="B20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>142</v>
+      </c>
       <c r="D20" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="H20" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>183</v>
+      </c>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="27" t="s">
         <v>131</v>
       </c>
+      <c r="B21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>130</v>
+      </c>
       <c r="D21" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="H21" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>186</v>
+      </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="27" t="s">
+      <c r="A22" s="27" t="s">
         <v>141</v>
       </c>
+      <c r="B22" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>140</v>
+      </c>
       <c r="D22" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="H22" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="27" t="s">
+      <c r="A23" s="27" t="s">
         <v>136</v>
       </c>
+      <c r="B23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>135</v>
+      </c>
       <c r="D23" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="H23" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>192</v>
+      </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="27" t="s">
+      <c r="A24" s="27" t="s">
         <v>134</v>
       </c>
+      <c r="B24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>133</v>
+      </c>
       <c r="D24" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="H24" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>195</v>
+      </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>133</v>
+        <v>58</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>132</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+      <c r="H25" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>198</v>
+      </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>138</v>
+        <v>52</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="H26" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="27" t="s">
+      <c r="A27" s="27" t="s">
         <v>139</v>
       </c>
+      <c r="B27" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>138</v>
+      </c>
       <c r="D27" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+      <c r="H27" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>204</v>
+      </c>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>126</v>
+        <v>23</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+      <c r="H28" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>207</v>
+      </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>127</v>
+        <v>27</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
+      <c r="H29" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>210</v>
+      </c>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>124</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
+      <c r="H30" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>213</v>
+      </c>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>125</v>
+        <v>25</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
+      <c r="H31" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>153</v>
+      </c>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
     </row>
@@ -1826,11 +2183,11 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
+      <c r="B47" s="15"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="25"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1867,84 +2224,84 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="6">
         <v>39504</v>
@@ -1952,51 +2309,51 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2004,17 +2361,17 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -2024,7 +2381,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Salmonella_enterica_1203NYJAP-1.xlsx
+++ b/datasets/Salmonella_enterica_1203NYJAP-1.xlsx
@@ -485,205 +485,205 @@
     <t>ddf49fc28dd3c38dca79da596e17fdf70c78374c2a06b33f513fe922e8947912</t>
   </si>
   <si>
-    <t>85b5691c0b5ddfc15171d2020cf6d23f255a0ec390b7d5c0093283cb1e8c4d4e</t>
-  </si>
-  <si>
-    <t>0fa4ae5082eaa7386452fc466f6245d2b62090c08ff22dbbbfadff2851edb4de</t>
-  </si>
-  <si>
     <t>dcfdf1bff59f19c98fda5e4dc7b0fe1540f61f0422e12747bb6540c5dafbaa2d</t>
   </si>
   <si>
     <t>a713cd3d5d63838b1d0ad6da6022c28d606ed89d37e5bbff885756aab9232f93</t>
   </si>
   <si>
-    <t>dad08d06603fcc9c9f198ce0dd285145a226ec5d5eaed39c4b50c930bb558bf2</t>
-  </si>
-  <si>
     <t>0b589587529572591da23ed6ba6640875df2bfbcb488a2470f3463d4bdb85aef</t>
   </si>
   <si>
     <t>8a262325936ae5731857d49a6388143b4683785f91e9185a2f9a8e54de82b2e4</t>
   </si>
   <si>
-    <t>3c816c89475948e7d51aa613d73df14feef4b621745e102c0b98aff2a5db258e</t>
-  </si>
-  <si>
     <t>4a0471c8e2b5a598f4706ec440c0556351b3b9bcd21ba267671bfbf73d301755</t>
   </si>
   <si>
     <t>0a705769d5899f1507868320ae6cbb6a66db8b3aba2753ef3062f20250a2c4ca</t>
   </si>
   <si>
-    <t>8c607f09cc68f44a06df723af46fe80071c875f41eaa73d4169095b004755a4f</t>
-  </si>
-  <si>
     <t>94a16c86a068e4ece9a50879459c87d867bf609d5892f9618def7335a11d7510</t>
   </si>
   <si>
     <t>be5b5339162f4c19d4cae2f5183cb3458ede05b4a4c7ba72fc8d18e005e292d1</t>
   </si>
   <si>
-    <t>f7fbf2425a5cf834811d8118c3ec82daf6eca4f93edcf1e7fd21cc7d185c9994</t>
-  </si>
-  <si>
     <t>9ba32399bee5c10e51c9e71baaed8a9a827dfa52cb5a82e02b42247465ced011</t>
   </si>
   <si>
     <t>6b33b3f49f125dd8447f847e43f9d443cd947c2ea6706756fca2ccb8e5f1df6e</t>
   </si>
   <si>
-    <t>6bfee28fb2203947849ec7061fd69781dd1b83f4705301ddbc505768d339d4d7</t>
-  </si>
-  <si>
     <t>f2ef621b7b6c4f935b84e4efb696e3f96580ac0e10b96d0e6f93207663be8632</t>
   </si>
   <si>
     <t>5a5672831ed2fa424fb8dd44f4922da217b7884fde35905802c248c336cccf6e</t>
   </si>
   <si>
-    <t>e46ba05e316934334ca40e3c522971551bee833794f669570dce145514bd9a9c</t>
-  </si>
-  <si>
     <t>8934f83b8d0a9f5c5d44dbb9252d8eccadd5f26796e42f45ea946fdd104159e1</t>
   </si>
   <si>
     <t>23bd0338cd576e74e28d0ab0942142e97dbc575939ed57cd851d664643f98045</t>
   </si>
   <si>
-    <t>3c2855e8aa1fc190a3c655249cdc2d3f1c43e06b9619fa8b64a749a7f0dd90fe</t>
-  </si>
-  <si>
     <t>36430f30fdf9d79aadaa1a7a2cbd5e9c279409f76fffe3b476079f633130a270</t>
   </si>
   <si>
     <t>6e5d735c0ab15b845a954d3b7f1e55f60b579395c0888295049a6b4ab47380d0</t>
   </si>
   <si>
-    <t>a835403dca5da5d80eb50c6d0c0f9853d48a256b56ffeeb6bd014bdeb063db9e</t>
-  </si>
-  <si>
     <t>f978695af9080013b42974a46e73d92cb7be18db17196855bf8c504bbfe27d92</t>
   </si>
   <si>
     <t>a23f650992150f2ef75091bf2823895861c9dbc1dbba2a7ba706b6fdc9144a8c</t>
   </si>
   <si>
-    <t>94f17b499900246394fbfe213762b1530d38702ff0de2eb105371a4ee0fba2c0</t>
-  </si>
-  <si>
     <t>0e6e7104f6d1e9366d86792ebdad12aacb5bb739c59f7a19d68c4e663f635e49</t>
   </si>
   <si>
     <t>fcb4e0209e987b36bbe8536a930e7d2c1b29155d31380d7e10a872f4a4ba1d88</t>
   </si>
   <si>
-    <t>b72a070431a804a8d60ba729f0602bc5fd34e1013972754cb6c5fecc58bd2e4a</t>
-  </si>
-  <si>
     <t>e9a0288a4c88909c0e47abacacb9ead487c27de32b885fa9e7e6a205ba971d5c</t>
   </si>
   <si>
     <t>fba509b96e8c641d01274e4f4538f8da56f85361d448a222ba8006db2df03592</t>
   </si>
   <si>
-    <t>d1cd57702872538b6bbdc5fa3123565deb470f5ad52f1795ce73f32757c17d6b</t>
-  </si>
-  <si>
     <t>e9eb118ce31d0c793b8c92e012672c0515b5585837907a82c4962b2fe50c0a37</t>
   </si>
   <si>
     <t>424d7c976669c2bb5429607074842e21ff2eb5443ae2e89b17fa8a7e8cca9139</t>
   </si>
   <si>
-    <t>aff50c882f160ae2f99f8701e07dc685664a78a6c758356c294c131d76890184</t>
-  </si>
-  <si>
     <t>d95552f4a541d6523c12ec9fab9afb4baa064a58d015864a42282e0f5f72206f</t>
   </si>
   <si>
     <t>d923bc1742a1022002423be237679aadd462f5a4cbe74462fcd743922c22e6f4</t>
   </si>
   <si>
-    <t>25357d80b008c568668990394c799f096b9c6ca70d68cbf0ee168857c84a6c53</t>
-  </si>
-  <si>
     <t>941642742b17b699abe68edf8739e9457f0eadb04f69f03f2821782e9e5afa50</t>
   </si>
   <si>
     <t>2811c07ebbef0302f4fd9e4c8249f20a935008e9b471902c94cbcf6dbd9f3d62</t>
   </si>
   <si>
-    <t>8a552e63936dc7a20befa017e3e05d6458f447710c716c89601e2c3ec3285bd5</t>
-  </si>
-  <si>
     <t>884b6cd41b1700d44e28204cd911cb9a16a37c57378fe17ecb872cf7b26c176c</t>
   </si>
   <si>
     <t>af6f8ee32c727991e548abb391050c01e7c54a371744db0879eeda6fa4505824</t>
   </si>
   <si>
-    <t>b497bc9b85621018a0ee473a2731b6b2b8e9118bb66838580f54926b9339be6d</t>
-  </si>
-  <si>
     <t>c155f15b8021cd87c661399f0d207891ea9b897d7dbe6c812377a6a5045b43db</t>
   </si>
   <si>
     <t>bcca0abb2e9386f95d9336fcc1de31e8131a4649fb61c2dae3abfc5dbf06475b</t>
   </si>
   <si>
-    <t>770add9f9004fbbcc86c3a2515d72d04f6e6ba7d7187de9bc4da08f182b8d46c</t>
-  </si>
-  <si>
     <t>13045394046f5903ce3d40f41983b4f5e0d2aba90848d6401b2188a1e702a8d5</t>
   </si>
   <si>
     <t>f6cdfcbd3d45fb3469657fea9c198db107bd9551bfd44028944671c52a5a2c5b</t>
   </si>
   <si>
-    <t>ef12d519353f981305e5ff3e91d4eaab11c57a58b7b7f7b928eeb02954a5ebf2</t>
-  </si>
-  <si>
     <t>8867fd9951a62d40d2a745886abbb8b751a54a478aa0604618e61c314eb76946</t>
   </si>
   <si>
     <t>caf5af7204dfb91ab16aa0e7dbc85a679b41122fbb772b7ec4f6e7e666e4f500</t>
   </si>
   <si>
-    <t>7b40896b749c115c55bbd09212330ab050987a2c985995ffd12f420ba9c24b80</t>
-  </si>
-  <si>
     <t>e0b8e9860b3693913752f2b35b85316eb099e18786df38023b149b36b422f67b</t>
   </si>
   <si>
     <t>d2393fa0cc389856d5d492782e78bdbd15190444148b08e457816f70c4cbd30f</t>
   </si>
   <si>
-    <t>ab60528d2e56f8f02fdb46644594438f403ca826ed96e7f4bf28fbbcbc44293e</t>
-  </si>
-  <si>
     <t>c1a4afc8745f793d677d39202c0273e26dc4ad842cf9018d7fe481ed6c24b0f0</t>
   </si>
   <si>
     <t>9be77fa886776ce20f22d43936e8a088e1bc506d387cf185ad197054d5324d5a</t>
   </si>
   <si>
-    <t>42cc4e53b6d2e76d8beab97e853935fbbd7c02f79e686a33b6009a285cc61023</t>
-  </si>
-  <si>
     <t>36adfb268af0994466438b3be02afb149a102772c1b1937e010d8578f1c22165</t>
   </si>
   <si>
     <t>e9b950adae85d772f82785ecbdd86a1ecd51c8756ef3793a9251f39af1f144e8</t>
   </si>
   <si>
-    <t>b82d1343d00809746ff9ca297292cf2a4e439f59ba867800b84e6e63a9380825</t>
-  </si>
-  <si>
     <t>6484dce8f4a9a5f2a058d00e386578d74080ed42e87197fab79f3e7fafdd5dbf</t>
   </si>
   <si>
     <t>4cd5f67c72c4cf5713d43a195dafdf35bdd5764eb78de25a545b3cad5025502b</t>
+  </si>
+  <si>
+    <t>ab28118f7631256a46d9797553a2770955ac76d61b6e895ce882878f0eb13cf3</t>
+  </si>
+  <si>
+    <t>7993a17d309455283fd6b6cd004adb2364af0dc66a61036dba898271fea6bd0f</t>
+  </si>
+  <si>
+    <t>b49ff77b4fcbb9faea1e6f196d00552f1cbfb05cee36bba08c698175f2a1fdda</t>
+  </si>
+  <si>
+    <t>f623e6c2ec9ec4b30a97244b558ff8918d72c72391bfddff6ac96ed471ebfb2a</t>
+  </si>
+  <si>
+    <t>f56209bc6c6e837a1a5c04fad91de924842885c5420724ae55fbf1ea731deef8</t>
+  </si>
+  <si>
+    <t>78f41fcc97c05c51c868604858563e654810acc1b5d9787aa9d4debdf5ee2083</t>
+  </si>
+  <si>
+    <t>1ae637bcf2d05cfe30bdf308b0ffb7284175a2a544a7e42fc088aa0489449df0</t>
+  </si>
+  <si>
+    <t>7f1c18ba1cfc2ebb982129f28c79815e934ae5b991757def5ff40e3d4650206a</t>
+  </si>
+  <si>
+    <t>a3413f67c74aa74974f9c66a15c159e05dc4c526e0aaff62e70c910de6e381eb</t>
+  </si>
+  <si>
+    <t>830ac39d75905be25b3b60f1b2abbf1d6e3342e4831466421ecc948636f84d0f</t>
+  </si>
+  <si>
+    <t>7ad78d8b1a8bd00875bd36cc00d4dbad9d97b0a8dfb9a5def7b630b8250d9213</t>
+  </si>
+  <si>
+    <t>33a84524c522eb9ceb875e4312eb00fd1c8f2551f502bea3b16734f4e2e9052d</t>
+  </si>
+  <si>
+    <t>5604afa3fd3c7df2e5d7df66e0e79484840398cf4e792364a9cfefda1d9cca2a</t>
+  </si>
+  <si>
+    <t>f628e5719a1e73382e0a48c3b80ae63d4e1537c83cdd3e4b5e2d5c42a11df6fb</t>
+  </si>
+  <si>
+    <t>74a316bc594d73286b4139a24dfca3d177edad4d461f498733593699c18d926c</t>
+  </si>
+  <si>
+    <t>499eaa958428f78e79f6015c2a6957872495431bedd8a96b6a282797fef7081e</t>
+  </si>
+  <si>
+    <t>3ad22e8328a2d5e61c30c22c05c9bddc1eabdd04ccb976590b437fc0ef8efa41</t>
+  </si>
+  <si>
+    <t>4a35cb8ee35e7b6b2961f47cd5df954277d55dece29654352e3a414d103ad383</t>
+  </si>
+  <si>
+    <t>ad6043d1a1bd5f59ead9c6cd78a864f6ae20eff38ea29ac459967061bec80a1f</t>
+  </si>
+  <si>
+    <t>9b99948c11c4b6edf09618b4148a20e977ab6cc9cce57ec01dada67e01afc0fa</t>
+  </si>
+  <si>
+    <t>c17c3d53549bb608d1180a7cc9debef89293789a16a5306ac7dfcf8a92ae5837</t>
+  </si>
+  <si>
+    <t>14cbeeacd4ba3992c712b2b399646c77f57c81dc89171cfa1369f63a4e97d9d7</t>
+  </si>
+  <si>
+    <t>4a9eaaccaf2ab67798d929079ae632c86050db53ed0f958bf7f228f07ed78d73</t>
   </si>
 </sst>
 </file>
@@ -1263,18 +1263,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.625" style="12"/>
     <col min="2" max="2" width="15.625" style="17"/>
-    <col min="3" max="3" width="18.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="13"/>
+    <col min="3" max="3" width="15.25" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="13" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="13" customWidth="1"/>
     <col min="7" max="7" width="18" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="15.625" style="12"/>
   </cols>
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>145</v>
@@ -1422,13 +1422,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="31" t="s">
         <v>148</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>150</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -1456,13 +1456,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -1490,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -1524,13 +1524,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -1558,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -1592,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
@@ -1626,13 +1626,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
@@ -1762,13 +1762,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
@@ -1796,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
@@ -1830,13 +1830,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
@@ -1864,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -1898,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
@@ -1932,13 +1932,13 @@
         <v>0</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
@@ -1966,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -2000,13 +2000,13 @@
         <v>0</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
@@ -2034,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
@@ -2068,13 +2068,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
@@ -2102,13 +2102,13 @@
         <v>0</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
@@ -2136,13 +2136,13 @@
         <v>0</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>

--- a/datasets/Salmonella_enterica_1203NYJAP-1.xlsx
+++ b/datasets/Salmonella_enterica_1203NYJAP-1.xlsx
@@ -16,7 +16,7 @@
     <sheet name="SAMN00991044" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="tmpt." localSheetId="0">'Salmonella_enterica_1203NYJAP-1'!$D$9:$D$31</definedName>
+    <definedName name="tmpt." localSheetId="0">'Salmonella_enterica_1203NYJAP-1'!$D$10:$D$32</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="216">
   <si>
     <t xml:space="preserve">CFSAN000189 </t>
   </si>
@@ -684,13 +684,19 @@
   </si>
   <si>
     <t>4a9eaaccaf2ab67798d929079ae632c86050db53ed0f958bf7f228f07ed78d73</t>
+  </si>
+  <si>
+    <t>intendedUse</t>
+  </si>
+  <si>
+    <t>Epi-validated outbreak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -750,6 +756,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -816,7 +837,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -891,6 +912,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1261,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1327,90 +1352,65 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E9" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I9" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J9" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K9" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L9" s="16" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>110</v>
@@ -1419,32 +1419,32 @@
         <v>64</v>
       </c>
       <c r="G10" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>110</v>
@@ -1456,29 +1456,29 @@
         <v>0</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>110</v>
@@ -1490,29 +1490,29 @@
         <v>0</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>110</v>
@@ -1524,32 +1524,32 @@
         <v>0</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>95</v>
+        <v>54</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>64</v>
@@ -1558,31 +1558,31 @@
         <v>0</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="23" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>95</v>
       </c>
       <c r="F15" s="13" t="s">
@@ -1592,31 +1592,31 @@
         <v>0</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="21" t="s">
+    <row r="16" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>95</v>
       </c>
       <c r="F16" s="13" t="s">
@@ -1626,29 +1626,29 @@
         <v>0</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>95</v>
@@ -1660,29 +1660,29 @@
         <v>0</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>95</v>
@@ -1694,29 +1694,29 @@
         <v>0</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>129</v>
+      <c r="A19" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>95</v>
@@ -1728,29 +1728,29 @@
         <v>0</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>95</v>
@@ -1762,29 +1762,29 @@
         <v>0</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>131</v>
+      <c r="A21" s="27" t="s">
+        <v>143</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>95</v>
@@ -1796,29 +1796,29 @@
         <v>0</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>141</v>
+      <c r="A22" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>95</v>
@@ -1830,29 +1830,29 @@
         <v>0</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>95</v>
@@ -1864,29 +1864,29 @@
         <v>0</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>95</v>
@@ -1898,29 +1898,29 @@
         <v>0</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>58</v>
+      <c r="A25" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>95</v>
@@ -1932,29 +1932,29 @@
         <v>0</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>95</v>
@@ -1966,29 +1966,29 @@
         <v>0</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>139</v>
+      <c r="A27" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>95</v>
@@ -2000,29 +2000,29 @@
         <v>0</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>23</v>
+      <c r="A28" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>95</v>
@@ -2034,29 +2034,29 @@
         <v>0</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>95</v>
@@ -2068,29 +2068,29 @@
         <v>0</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>95</v>
@@ -2102,29 +2102,29 @@
         <v>0</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>95</v>
@@ -2136,21 +2136,50 @@
         <v>0</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="A32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C33" s="12"/>
@@ -2173,29 +2202,34 @@
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="24"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="15"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="25"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="24"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="24"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="15"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="C59" s="24"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="25"/>
+      <c r="E60" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
